--- a/resources/testdata/Test_Data.xlsx
+++ b/resources/testdata/Test_Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prasad Chitale\Documents\java_selenium\HybridFramework_Practice_Prasad_C\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7915F8E9-2813-46F6-B547-1721C8D44A03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B494A81-0233-4C36-B1DC-371F2C67C189}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3516" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="AccountCreation" sheetId="2" r:id="rId2"/>
+    <sheet name="ProductDetails" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>mkanani</t>
   </si>
@@ -157,13 +158,79 @@
     <t>Wellington</t>
   </si>
   <si>
-    <t>automation16@gmail.com</t>
-  </si>
-  <si>
-    <t>automation17@gmail.com</t>
-  </si>
-  <si>
-    <t>automation18@gmail.com</t>
+    <t>automation_framework21@gmail.com</t>
+  </si>
+  <si>
+    <t>automation_framework22@gmail.com</t>
+  </si>
+  <si>
+    <t>automation_framework23@gmail.com</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Faded Short Sleeve T-shirts</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Faded short sleeve t-shirt with high neckline. Soft and stretchy material for a comfortable fit. Accessorize with a straw hat and you're ready for summer!</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>MoreInfo</t>
+  </si>
+  <si>
+    <t>Fashion has been creating well-designed collections since 2010. The brand offers feminine designs delivering stylish separates and statement dresses which has since evolved into a full ready-to-wear collection in which every item is a vital part of a woman's wardrobe. The result? Cool, easy, chic looks with youthful elegance and unmistakable signature style. All the beautiful pieces are made in Italy and manufactured with the greatest attention. Now Fashion extends to a range of accessories including shoes, hats, belts and more!</t>
+  </si>
+  <si>
+    <t>Compositions</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>Styles</t>
+  </si>
+  <si>
+    <t>Casual</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Short Sleeve</t>
+  </si>
+  <si>
+    <t>Tab Name</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Shipping cost</t>
+  </si>
+  <si>
+    <t>$2.00</t>
+  </si>
+  <si>
+    <t>$16.51</t>
   </si>
 </sst>
 </file>
@@ -203,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,15 +278,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -567,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17853EFF-DF60-46D5-96A5-75A81366FEE0}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,4 +857,101 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E0352E-589E-4DCE-A714-6486F13B9C38}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="36.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="4">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>